--- a/src/test/resources/docs/devops 接口整理1.0.xlsx
+++ b/src/test/resources/docs/devops 接口整理1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\项目\威海银行\dev\ws\weihaibank\proj\intf\devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slicee\ws\gitws\kvps\src\test\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF616150-999D-46BC-9113-873AC6CBE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5B87F-AB59-45E9-92EB-856D5EDB4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1682,28 +1682,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>接口i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nsert 类接口，重复调用</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>重复插入数据</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>覆盖与更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口insert 类接口，重复调用 可选策略</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4624,8 +4611,8 @@
   </sheetPr>
   <dimension ref="B1:K470"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E473" sqref="E473"/>
+    <sheetView showGridLines="0" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="C471" sqref="C471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7623,7 +7610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="239" spans="2:8" s="56" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="54" t="s">
         <v>54</v>
       </c>
@@ -7643,7 +7630,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="240" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
@@ -7651,7 +7638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B241" s="4" t="s">
         <v>57</v>
       </c>
@@ -7659,7 +7646,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="9" t="s">
         <v>59</v>
       </c>
@@ -7667,7 +7654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="243" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="4" t="s">
         <v>61</v>
       </c>
@@ -7675,7 +7662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B244" s="4" t="s">
         <v>63</v>
       </c>
@@ -7683,7 +7670,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B245" s="4" t="s">
         <v>65</v>
       </c>
@@ -7691,7 +7678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="246" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B246" s="4" t="s">
         <v>67</v>
       </c>
@@ -7699,12 +7686,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="247" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="248" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C248" s="6" t="s">
         <v>70</v>
       </c>
@@ -7727,7 +7714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="249" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C249" s="6" t="s">
         <v>177</v>
       </c>
@@ -7747,7 +7734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C250" s="6" t="s">
         <v>248</v>
       </c>
@@ -7767,7 +7754,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C251" s="36" t="s">
         <v>362</v>
       </c>
@@ -7788,15 +7775,15 @@
         <v>361</v>
       </c>
     </row>
-    <row r="252" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C252" s="19"/>
     </row>
-    <row r="253" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C254" s="6" t="s">
         <v>70</v>
       </c>
@@ -7819,7 +7806,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="255" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C255" s="6" t="s">
         <v>209</v>
       </c>
@@ -7839,7 +7826,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="256" spans="2:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C256" s="6" t="s">
         <v>250</v>
       </c>
@@ -7859,7 +7846,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C257" s="6" t="s">
         <v>144</v>
       </c>
@@ -7882,7 +7869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="258" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C258" s="6" t="s">
         <v>253</v>
       </c>
@@ -7906,7 +7893,7 @@
       </c>
       <c r="K258" s="37"/>
     </row>
-    <row r="259" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C259" s="6" t="s">
         <v>215</v>
       </c>
@@ -7929,7 +7916,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C260" s="6" t="s">
         <v>256</v>
       </c>
@@ -7952,7 +7939,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="261" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C261" s="6" t="s">
         <v>258</v>
       </c>
@@ -7972,7 +7959,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C262" s="6" t="s">
         <v>182</v>
       </c>
@@ -7995,7 +7982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="263" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C263" s="6" t="s">
         <v>164</v>
       </c>
@@ -8018,7 +8005,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="264" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C264" s="6" t="s">
         <v>172</v>
       </c>
@@ -8041,7 +8028,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="265" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C265" s="36" t="s">
         <v>374</v>
       </c>
@@ -8062,7 +8049,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="266" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C266" s="11"/>
       <c r="D266" s="13"/>
       <c r="E266" s="11"/>
@@ -8070,7 +8057,7 @@
       <c r="G266" s="11"/>
       <c r="H266" s="13"/>
     </row>
-    <row r="267" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C267" s="11"/>
       <c r="D267" s="13"/>
       <c r="E267" s="11"/>
@@ -8078,12 +8065,12 @@
       <c r="G267" s="11"/>
       <c r="H267" s="13"/>
     </row>
-    <row r="268" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C269" s="6" t="s">
         <v>70</v>
       </c>
@@ -8103,7 +8090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C270" s="6" t="s">
         <v>230</v>
       </c>
@@ -8123,7 +8110,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="271" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C271" s="6" t="s">
         <v>232</v>
       </c>
@@ -8143,7 +8130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="272" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C272" s="6" t="s">
         <v>234</v>
       </c>
@@ -8163,7 +8150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C273" s="6" t="s">
         <v>236</v>
       </c>
@@ -8183,7 +8170,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="274" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C274" s="6" t="s">
         <v>238</v>
       </c>
@@ -8203,13 +8190,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="275" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="277" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C277" s="6" t="s">
         <v>70</v>
       </c>
@@ -8223,7 +8210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C278" s="6" t="s">
         <v>53</v>
       </c>
@@ -8237,7 +8224,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="279" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C279" s="6" t="s">
         <v>190</v>
       </c>
@@ -8251,7 +8238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="280" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C280" s="6" t="s">
         <v>192</v>
       </c>
@@ -8265,13 +8252,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="281" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="283" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C283" s="6" t="s">
         <v>91</v>
       </c>
@@ -8282,7 +8269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C284" s="6">
         <v>200</v>
       </c>
@@ -8293,7 +8280,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="285" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C285" s="6">
         <v>201</v>
       </c>
@@ -8304,7 +8291,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="286" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C286" s="6">
         <v>401</v>
       </c>
@@ -8315,7 +8302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="287" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C287" s="6">
         <v>403</v>
       </c>
@@ -8326,7 +8313,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="288" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C288" s="6">
         <v>404</v>
       </c>
@@ -8337,7 +8324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="289" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="290" spans="2:8" s="56" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B290" s="54" t="s">
         <v>54</v>
@@ -10773,8 +10760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A36964F-FE03-40D2-8E1D-30C03A3E164B}">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10819,7 +10806,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>407</v>
@@ -10843,7 +10830,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>408</v>
@@ -10859,7 +10846,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>409</v>
@@ -10883,7 +10870,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>410</v>
@@ -10899,7 +10886,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>412</v>
@@ -10934,7 +10921,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -10942,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -10950,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
